--- a/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -192,9 +192,6 @@
     <t>$ 51.79</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>$ 848.84</t>
   </si>
   <si>
@@ -204,7 +201,7 @@
     <t>L71</t>
   </si>
   <si>
-    <t>$ 640.68</t>
+    <t>$ 640.68</t>
   </si>
 </sst>
 </file>
@@ -305,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +344,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1517,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>72</v>
+        <v>3765</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1553,7 +1551,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>69</v>
+        <v>3733</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1587,7 +1585,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>67</v>
+        <v>3731</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1598,8 +1596,8 @@
       <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>56</v>
+      <c r="E4" s="6">
+        <v>900</v>
       </c>
       <c r="F4" s="6">
         <v>848.21</v>
@@ -1621,7 +1619,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>70</v>
+        <v>3734</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1655,7 +1653,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>65</v>
+        <v>3729</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1802,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1818,7 @@
     <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>31</v>
       </c>
@@ -1876,7 +1874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>32</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>33</v>
       </c>
@@ -1929,26 +1927,6 @@
         <v>53</v>
       </c>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,7 +1938,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2064,7 @@
     <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2115,7 +2093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>100</v>
       </c>
@@ -2139,10 +2117,10 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>101</v>
       </c>
@@ -2166,10 +2144,10 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>102</v>
       </c>
@@ -2195,35 +2173,6 @@
         <v>53</v>
       </c>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2240,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>40</v>
@@ -2302,9 +2251,10 @@
       <c r="G2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="H2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -2317,7 +2267,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>51</v>
@@ -2328,8 +2278,9 @@
       <c r="G3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>60</v>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -207,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,6 +360,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -402,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,10 +846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,12 +867,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,17 +913,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -905,9 +949,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -945,14 +990,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -977,9 +1023,10 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1017,14 +1064,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1060,14 +1108,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1103,14 +1152,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1146,14 +1196,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1189,14 +1240,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1232,14 +1284,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1275,14 +1328,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1318,14 +1372,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1361,14 +1416,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1404,14 +1460,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1447,10 +1504,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>740.68</v>
       </c>
     </row>
@@ -2183,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2564-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -212,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +438,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,23 +473,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
